--- a/docs/Tareas_pendientes_Autofirma.xlsx
+++ b/docs/Tareas_pendientes_Autofirma.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1331,7 +1331,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>77</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="E49" s="7">
         <v>2</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>54</v>
+      <c r="F49" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8" t="s">
@@ -2554,7 +2554,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>121</v>
       </c>
@@ -2566,8 +2566,8 @@
       <c r="E53" s="7">
         <v>3</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>54</v>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>121</v>
       </c>
@@ -2719,8 +2719,8 @@
       <c r="E60" s="7">
         <v>4</v>
       </c>
-      <c r="F60" s="7" t="s">
-        <v>54</v>
+      <c r="F60" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">

--- a/docs/Tareas_pendientes_Autofirma.xlsx
+++ b/docs/Tareas_pendientes_Autofirma.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -531,7 +531,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1050,7 +1050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1083,26 +1083,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1135,23 +1118,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1330,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2431,7 +2397,9 @@
       <c r="H47" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -2452,7 +2420,9 @@
       <c r="H48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
